--- a/medicine/Psychotrope/Vignoble_de_Karst/Vignoble_de_Karst.xlsx
+++ b/medicine/Psychotrope/Vignoble_de_Karst/Vignoble_de_Karst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vignoble de Karst est un vignoble prestigieux de Croatie, situé près de Primošten.
 Des générations de paysans ont déblayé les cailloux de la terre aride du Karst. Cette lutte pour chaque parcelle de terre arable, a créé un patchwork géométrique, véritable hymne au travail humain, qui a été choisi pour symbole de décoration pour le Palais des Nations unies à New York.
